--- a/admin/results/Python BasicResults.xlsx
+++ b/admin/results/Python BasicResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Python Basic</t>
   </si>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>20 December 2022, 03:00:59 PM</t>
-  </si>
-  <si>
-    <t>Sridhar Reddy</t>
-  </si>
-  <si>
-    <t>S338-571-938</t>
-  </si>
-  <si>
-    <t>28 March 2023, 07:23:46 PM</t>
   </si>
 </sst>
 </file>
@@ -428,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,23 +530,6 @@
       </c>
       <c r="E10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
